--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1495045.761803412</v>
+        <v>-1496974.523706987</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>151.2837728994341</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>87.05142705643568</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>18.11186662957354</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>31.23153138236676</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>28.69723130130875</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>331.2414836209401</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>331.2414836209401</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>331.2414836209401</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>276.7861782893312</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.97132048399257</v>
+        <v>14.97132048399258</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>331.2414836209385</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>129.0507428586465</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>201.4679039890863</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3191395453451</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>19.31382977547911</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>331.2414836209385</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.28901570683439</v>
+        <v>40.68402974158765</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.3894603225786</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.4499895666097</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9297160451498</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>85.11641412077554</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.997638917231921</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>235.5351010609369</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>250.3682106968801</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>82.59957183215651</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>30.54110646053103</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>149.5562574039293</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901472</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>58.42247119226025</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>66.90445977359168</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.347695664762571</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>101.0041688483414</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>136.9575467270109</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>169.1477376595843</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>152.2303518676587</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.0138447039338</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>118.8323343322907</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>117.8194197086527</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.8919401490991</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>121.3122000532576</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>82.81761714999348</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.36272408951429</v>
+        <v>82.36272408951423</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>170.3191816693247</v>
       </c>
       <c r="T28" t="n">
         <v>193.9459327441107</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>132.694407078191</v>
       </c>
       <c r="V28" t="n">
-        <v>170.0756245653112</v>
+        <v>224.5360150095494</v>
       </c>
       <c r="W28" t="n">
-        <v>258.9213700223125</v>
+        <v>258.9213700223124</v>
       </c>
       <c r="X28" t="n">
         <v>198.1080270747586</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>190.9830250378162</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>121.0138447039338</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>95.50496678562912</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>121.3122000532576</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>82.81761714999348</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>82.36272408951423</v>
       </c>
       <c r="S31" t="n">
         <v>170.3191816693247</v>
       </c>
       <c r="T31" t="n">
-        <v>193.9459327441107</v>
+        <v>99.22112290172737</v>
       </c>
       <c r="U31" t="n">
         <v>258.6357240842988</v>
       </c>
       <c r="V31" t="n">
-        <v>224.5360150095495</v>
+        <v>224.5360150095494</v>
       </c>
       <c r="W31" t="n">
-        <v>258.9213700223125</v>
+        <v>258.9213700223124</v>
       </c>
       <c r="X31" t="n">
         <v>198.1080270747586</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>190.9830250378162</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C35" t="n">
         <v>297.1410016413669</v>
@@ -3272,7 +3272,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F35" t="n">
         <v>338.7441556120708</v>
@@ -3281,10 +3281,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310006</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T35" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201593</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X35" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3560,10 +3560,10 @@
         <v>182.9467051201604</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404945</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877712</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
@@ -3758,7 +3758,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.6472449231001</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>182.9467051201603</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W41" t="n">
         <v>281.1090785877724</v>
@@ -3806,7 +3806,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.1060485264134</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
         <v>281.1090785877724</v>
@@ -4043,7 +4043,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264117</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251.4724366382861</v>
+        <v>595.2995674921788</v>
       </c>
       <c r="C2" t="n">
-        <v>251.4724366382861</v>
+        <v>316.353594055456</v>
       </c>
       <c r="D2" t="n">
-        <v>251.4724366382861</v>
+        <v>316.353594055456</v>
       </c>
       <c r="E2" t="n">
-        <v>251.4724366382861</v>
+        <v>316.353594055456</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5269358890827</v>
+        <v>37.40762061873335</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438682</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>809.3643835117316</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T2" t="n">
-        <v>809.3643835117316</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="U2" t="n">
-        <v>809.3643835117316</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="V2" t="n">
-        <v>530.4184100750089</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="W2" t="n">
-        <v>530.4184100750089</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="X2" t="n">
-        <v>530.4184100750089</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="Y2" t="n">
-        <v>251.4724366382861</v>
+        <v>595.2995674921788</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>199.624790878991</v>
+        <v>53.63952249251849</v>
       </c>
       <c r="C3" t="n">
-        <v>199.624790878991</v>
+        <v>53.63952249251849</v>
       </c>
       <c r="D3" t="n">
-        <v>199.624790878991</v>
+        <v>53.63952249251849</v>
       </c>
       <c r="E3" t="n">
-        <v>40.38733587353545</v>
+        <v>53.63952249251849</v>
       </c>
       <c r="F3" t="n">
-        <v>40.38733587353545</v>
+        <v>53.63952249251849</v>
       </c>
       <c r="G3" t="n">
-        <v>40.38733587353545</v>
+        <v>53.63952249251849</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>53.63952249251849</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>634.3469862468015</v>
+        <v>485.8202418432342</v>
       </c>
       <c r="N3" t="n">
-        <v>907.7419348121334</v>
+        <v>759.2151904085661</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121334</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4434,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>704.403429694748</v>
       </c>
       <c r="V3" t="n">
-        <v>869.4739465776793</v>
+        <v>469.2513214630052</v>
       </c>
       <c r="W3" t="n">
-        <v>615.2365898494777</v>
+        <v>469.2513214630052</v>
       </c>
       <c r="X3" t="n">
-        <v>407.3850896439449</v>
+        <v>261.3998212574724</v>
       </c>
       <c r="Y3" t="n">
-        <v>199.624790878991</v>
+        <v>53.63952249251849</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>51.07962342074273</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>51.07962342074273</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>51.07962342074273</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.3785772908915</v>
+        <v>383.1547225751726</v>
       </c>
       <c r="C5" t="n">
-        <v>990.3785772908915</v>
+        <v>383.1547225751726</v>
       </c>
       <c r="D5" t="n">
-        <v>655.7912200980227</v>
+        <v>383.1547225751726</v>
       </c>
       <c r="E5" t="n">
-        <v>321.2038629051539</v>
+        <v>383.1547225751726</v>
       </c>
       <c r="F5" t="n">
-        <v>41.62186463310205</v>
+        <v>376.2092218259691</v>
       </c>
       <c r="G5" t="n">
-        <v>26.49931868967521</v>
+        <v>361.0866758825422</v>
       </c>
       <c r="H5" t="n">
-        <v>26.49931868967521</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="I5" t="n">
-        <v>26.49931868967521</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="J5" t="n">
-        <v>42.51684241306816</v>
+        <v>42.51684241306748</v>
       </c>
       <c r="K5" t="n">
-        <v>187.2677626074283</v>
+        <v>187.2677626074268</v>
       </c>
       <c r="L5" t="n">
-        <v>419.1207064026829</v>
+        <v>419.1207064026805</v>
       </c>
       <c r="M5" t="n">
-        <v>693.7083251274871</v>
+        <v>693.7083251274838</v>
       </c>
       <c r="N5" t="n">
-        <v>958.1070610499628</v>
+        <v>958.1070610499586</v>
       </c>
       <c r="O5" t="n">
-        <v>1162.583652085459</v>
+        <v>1162.583652085453</v>
       </c>
       <c r="P5" t="n">
-        <v>1299.42530889359</v>
+        <v>1299.425308893585</v>
       </c>
       <c r="Q5" t="n">
-        <v>1324.96593448376</v>
+        <v>1324.965934483754</v>
       </c>
       <c r="R5" t="n">
-        <v>1324.96593448376</v>
+        <v>1194.611648767949</v>
       </c>
       <c r="S5" t="n">
-        <v>1324.96593448376</v>
+        <v>991.10871544564</v>
       </c>
       <c r="T5" t="n">
-        <v>1324.96593448376</v>
+        <v>991.10871544564</v>
       </c>
       <c r="U5" t="n">
-        <v>1324.96593448376</v>
+        <v>737.2509987331701</v>
       </c>
       <c r="V5" t="n">
-        <v>1324.96593448376</v>
+        <v>737.2509987331701</v>
       </c>
       <c r="W5" t="n">
-        <v>1324.96593448376</v>
+        <v>717.7420797680397</v>
       </c>
       <c r="X5" t="n">
-        <v>1324.96593448376</v>
+        <v>383.1547225751726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1324.96593448376</v>
+        <v>383.1547225751726</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200.9523479708022</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="C6" t="n">
-        <v>26.49931868967521</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="D6" t="n">
-        <v>26.49931868967521</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="E6" t="n">
-        <v>26.49931868967521</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="F6" t="n">
-        <v>26.49931868967521</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="G6" t="n">
-        <v>26.49931868967521</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="H6" t="n">
-        <v>26.49931868967521</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="I6" t="n">
-        <v>26.49931868967521</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="J6" t="n">
-        <v>42.34586640530222</v>
+        <v>42.34586640530181</v>
       </c>
       <c r="K6" t="n">
-        <v>93.05855057676808</v>
+        <v>196.0509835671027</v>
       </c>
       <c r="L6" t="n">
-        <v>361.1384452772256</v>
+        <v>464.1308782675595</v>
       </c>
       <c r="M6" t="n">
-        <v>689.0675140619562</v>
+        <v>726.4752373663887</v>
       </c>
       <c r="N6" t="n">
-        <v>1016.996582846687</v>
+        <v>726.4752373663887</v>
       </c>
       <c r="O6" t="n">
-        <v>1016.996582846687</v>
+        <v>1016.996582846682</v>
       </c>
       <c r="P6" t="n">
-        <v>1233.162507731472</v>
+        <v>1233.162507731466</v>
       </c>
       <c r="Q6" t="n">
-        <v>1324.96593448376</v>
+        <v>1324.965934483754</v>
       </c>
       <c r="R6" t="n">
-        <v>1274.168948921301</v>
+        <v>1283.870954946797</v>
       </c>
       <c r="S6" t="n">
-        <v>1274.168948921301</v>
+        <v>1113.780590984596</v>
       </c>
       <c r="T6" t="n">
-        <v>1274.168948921301</v>
+        <v>912.3159550587277</v>
       </c>
       <c r="U6" t="n">
-        <v>1274.168948921301</v>
+        <v>684.1041206696875</v>
       </c>
       <c r="V6" t="n">
-        <v>1039.016840689559</v>
+        <v>448.9520124379447</v>
       </c>
       <c r="W6" t="n">
-        <v>784.7794839613571</v>
+        <v>194.7146557097431</v>
       </c>
       <c r="X6" t="n">
-        <v>576.9279837558242</v>
+        <v>194.7146557097431</v>
       </c>
       <c r="Y6" t="n">
-        <v>369.1676849908703</v>
+        <v>194.7146557097431</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264.4135621855729</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="C7" t="n">
-        <v>264.4135621855729</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="D7" t="n">
-        <v>264.4135621855729</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="E7" t="n">
-        <v>178.4373863060017</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="F7" t="n">
-        <v>31.54743880809129</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="G7" t="n">
-        <v>31.54743880809129</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="H7" t="n">
-        <v>31.54743880809129</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="I7" t="n">
-        <v>31.54743880809129</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="J7" t="n">
-        <v>31.54743880809129</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="K7" t="n">
-        <v>26.49931868967521</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="L7" t="n">
-        <v>75.69444867730968</v>
+        <v>75.69444867730917</v>
       </c>
       <c r="M7" t="n">
-        <v>137.952938677578</v>
+        <v>137.9529386775771</v>
       </c>
       <c r="N7" t="n">
-        <v>204.1656773620603</v>
+        <v>204.165677362059</v>
       </c>
       <c r="O7" t="n">
-        <v>249.3075628649931</v>
+        <v>249.3075628649914</v>
       </c>
       <c r="P7" t="n">
-        <v>264.4135621855729</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="Q7" t="n">
-        <v>264.4135621855729</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="R7" t="n">
-        <v>264.4135621855729</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="S7" t="n">
-        <v>264.4135621855729</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="T7" t="n">
-        <v>264.4135621855729</v>
+        <v>264.4135621855709</v>
       </c>
       <c r="U7" t="n">
-        <v>264.4135621855729</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="V7" t="n">
-        <v>264.4135621855729</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="W7" t="n">
-        <v>264.4135621855729</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="X7" t="n">
-        <v>264.4135621855729</v>
+        <v>26.49931868967508</v>
       </c>
       <c r="Y7" t="n">
-        <v>264.4135621855729</v>
+        <v>26.49931868967508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2079.343073798764</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="C8" t="n">
-        <v>1710.380556858352</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="D8" t="n">
-        <v>1352.114858251602</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="E8" t="n">
-        <v>966.3266056533573</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>555.3407008637498</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>137.3768927619367</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>137.3768927619367</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862886</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1124.063928676773</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V13" t="n">
-        <v>869.3794404708857</v>
+        <v>531.3977182706313</v>
       </c>
       <c r="W13" t="n">
-        <v>579.9622704339251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>579.9622704339251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5361,22 +5361,22 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1016.198248099061</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V16" t="n">
-        <v>761.5137598931742</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W16" t="n">
-        <v>472.0965898562135</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>244.1070389581962</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.5986022327734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>709.4512536188993</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045606</v>
+        <v>420.0340835819386</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065432</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.2470670630131</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,16 +5762,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904384</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>385.6746871625315</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>235.5580477501958</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>844.028040127399</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>554.6108700904384</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904384</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904384</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6175,22 +6175,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U25" t="n">
-        <v>1017.064856369034</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>727.6476863320729</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340556</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,19 +6215,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>242.5343297994525</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>391.6040140015124</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>804.9820976191014</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>804.9820976191014</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>682.7458908474509</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7132299057432</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>443.7037150485182</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>303.4088260090243</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>180.871250197653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6385,49 +6385,49 @@
         <v>136.9253959553315</v>
       </c>
       <c r="K28" t="n">
-        <v>314.4364122310786</v>
+        <v>314.4364122310787</v>
       </c>
       <c r="L28" t="n">
-        <v>589.4740692733435</v>
+        <v>589.4740692733437</v>
       </c>
       <c r="M28" t="n">
-        <v>888.3664240716621</v>
+        <v>888.3664240716623</v>
       </c>
       <c r="N28" t="n">
-        <v>1186.236145130345</v>
+        <v>1186.236145130346</v>
       </c>
       <c r="O28" t="n">
-        <v>1447.436735166878</v>
+        <v>1447.436735166879</v>
       </c>
       <c r="P28" t="n">
         <v>1651.362111803697</v>
       </c>
       <c r="Q28" t="n">
-        <v>1717.521166806988</v>
+        <v>1717.521166806989</v>
       </c>
       <c r="R28" t="n">
-        <v>1634.326496009499</v>
+        <v>1634.3264960095</v>
       </c>
       <c r="S28" t="n">
-        <v>1634.326496009499</v>
+        <v>1462.286918565738</v>
       </c>
       <c r="T28" t="n">
-        <v>1438.42151343969</v>
+        <v>1266.381935995929</v>
       </c>
       <c r="U28" t="n">
-        <v>1438.42151343969</v>
+        <v>1132.347181371493</v>
       </c>
       <c r="V28" t="n">
-        <v>1266.627953272709</v>
+        <v>905.543125806292</v>
       </c>
       <c r="W28" t="n">
-        <v>1005.091215876433</v>
+        <v>644.0063884100168</v>
       </c>
       <c r="X28" t="n">
-        <v>804.9820976191014</v>
+        <v>443.8972701526849</v>
       </c>
       <c r="Y28" t="n">
-        <v>804.9820976191014</v>
+        <v>250.9851236498401</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,25 +6482,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>399.8784894288517</v>
+        <v>219.4532982319365</v>
       </c>
       <c r="C31" t="n">
-        <v>399.8784894288517</v>
+        <v>219.4532982319365</v>
       </c>
       <c r="D31" t="n">
-        <v>399.8784894288517</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>399.8784894288517</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>399.8784894288517</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>303.4088260090243</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>180.871250197653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>136.9253959553315</v>
       </c>
       <c r="K31" t="n">
-        <v>314.4364122310785</v>
+        <v>314.4364122310787</v>
       </c>
       <c r="L31" t="n">
-        <v>589.4740692733435</v>
+        <v>589.4740692733437</v>
       </c>
       <c r="M31" t="n">
-        <v>888.3664240716621</v>
+        <v>888.3664240716623</v>
       </c>
       <c r="N31" t="n">
-        <v>1186.236145130345</v>
+        <v>1186.236145130346</v>
       </c>
       <c r="O31" t="n">
         <v>1447.436735166878</v>
       </c>
       <c r="P31" t="n">
-        <v>1651.362111803696</v>
+        <v>1651.362111803697</v>
       </c>
       <c r="Q31" t="n">
-        <v>1717.521166806988</v>
+        <v>1717.521166806989</v>
       </c>
       <c r="R31" t="n">
-        <v>1717.521166806988</v>
+        <v>1634.3264960095</v>
       </c>
       <c r="S31" t="n">
-        <v>1545.481589363226</v>
+        <v>1462.286918565737</v>
       </c>
       <c r="T31" t="n">
-        <v>1349.576606793417</v>
+        <v>1362.063562099346</v>
       </c>
       <c r="U31" t="n">
-        <v>1088.32840064766</v>
+        <v>1100.81535595359</v>
       </c>
       <c r="V31" t="n">
-        <v>861.5243450824589</v>
+        <v>874.0113003883882</v>
       </c>
       <c r="W31" t="n">
-        <v>599.9876076861837</v>
+        <v>612.4745629921131</v>
       </c>
       <c r="X31" t="n">
-        <v>399.8784894288517</v>
+        <v>412.3654447347811</v>
       </c>
       <c r="Y31" t="n">
-        <v>399.8784894288517</v>
+        <v>219.4532982319365</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010311</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>1925.51337246214</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.37094656177</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D35" t="n">
         <v>1335.92533899506</v>
       </c>
       <c r="E35" t="n">
-        <v>1018.957177436857</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872904</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G35" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402936</v>
+        <v>89.93481253402928</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K35" t="n">
-        <v>868.2168169432326</v>
+        <v>627.2079106437934</v>
       </c>
       <c r="L35" t="n">
-        <v>1415.511460712185</v>
+        <v>915.3274642826456</v>
       </c>
       <c r="M35" t="n">
-        <v>1767.769416274171</v>
+        <v>1712.603818002536</v>
       </c>
       <c r="N35" t="n">
-        <v>2130.341082210337</v>
+        <v>2508.148939106567</v>
       </c>
       <c r="O35" t="n">
-        <v>2836.364143234533</v>
+        <v>3214.172000130763</v>
       </c>
       <c r="P35" t="n">
-        <v>3401.264108490336</v>
+        <v>3460.491244296798</v>
       </c>
       <c r="Q35" t="n">
-        <v>3748.258696799039</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R35" t="n">
-        <v>3807.485832605502</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S35" t="n">
-        <v>3742.012625862514</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T35" t="n">
-        <v>3600.244041813159</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U35" t="n">
         <v>3415.449390176633</v>
@@ -6974,13 +6974,13 @@
         <v>3153.206593873103</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.258029643031</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.612362421992</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>200.277753927639</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3328803593267</v>
+        <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
         <v>242.4709188044724</v>
       </c>
       <c r="K36" t="n">
-        <v>653.361187648985</v>
+        <v>391.5406030065323</v>
       </c>
       <c r="L36" t="n">
-        <v>900.1263155554491</v>
+        <v>638.3057309129963</v>
       </c>
       <c r="M36" t="n">
-        <v>1207.446448835411</v>
+        <v>945.625864192958</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.309076499444</v>
+        <v>1422.280459070079</v>
       </c>
       <c r="O36" t="n">
-        <v>1816.849141718141</v>
+        <v>2091.744220372739</v>
       </c>
       <c r="P36" t="n">
-        <v>2307.396713252248</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q36" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026575</v>
+        <v>638.3928643026571</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147916</v>
+        <v>538.2767724147913</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424969</v>
+        <v>456.9802240424966</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001448</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021372</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901214</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J37" t="n">
         <v>155.9829803443641</v>
@@ -7123,22 +7123,22 @@
         <v>1844.09853413394</v>
       </c>
       <c r="T37" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V37" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W37" t="n">
-        <v>1062.363186054322</v>
+        <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963451</v>
+        <v>903.1937261963448</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928561</v>
+        <v>751.2212380928557</v>
       </c>
     </row>
     <row r="38">
@@ -7166,49 +7166,49 @@
         <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402936</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>221.4162488685775</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K38" t="n">
-        <v>423.9151489921541</v>
+        <v>379.9072094774265</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.519305035952</v>
+        <v>1081.511365521224</v>
       </c>
       <c r="M38" t="n">
-        <v>1922.795658755843</v>
+        <v>1604.214937666074</v>
       </c>
       <c r="N38" t="n">
-        <v>2718.340779859874</v>
+        <v>2399.760058770104</v>
       </c>
       <c r="O38" t="n">
-        <v>3424.363840884069</v>
+        <v>3105.7831197943</v>
       </c>
       <c r="P38" t="n">
-        <v>3670.683085050105</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q38" t="n">
-        <v>3807.485832605502</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.485832605502</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862514</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813159</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W38" t="n">
         <v>2869.25802964303</v>
@@ -7245,34 +7245,34 @@
         <v>200.277753927639</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3328803593267</v>
+        <v>104.3328803593266</v>
       </c>
       <c r="I39" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K39" t="n">
-        <v>653.361187648985</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L39" t="n">
-        <v>900.1263155554491</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.446448835411</v>
+        <v>1281.843752318453</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.309076499444</v>
+        <v>1611.706379982486</v>
       </c>
       <c r="O39" t="n">
-        <v>1816.849141718141</v>
+        <v>2091.744220372739</v>
       </c>
       <c r="P39" t="n">
-        <v>2307.396713252248</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q39" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026574</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424965</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001444</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021368</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901212</v>
       </c>
       <c r="I40" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
         <v>155.9829803443641</v>
@@ -7336,31 +7336,31 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M40" t="n">
         <v>1027.79888605232</v>
       </c>
       <c r="N40" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P40" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
-        <v>1975.198453178347</v>
+        <v>1975.198453178348</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T40" t="n">
-        <v>1689.133209963487</v>
+        <v>1689.133209963488</v>
       </c>
       <c r="U40" t="n">
         <v>1468.824662217087</v>
@@ -7372,10 +7372,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963451</v>
+        <v>903.1937261963448</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C41" t="n">
         <v>1625.370946561769</v>
@@ -7397,64 +7397,64 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G41" t="n">
         <v>329.485680192289</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I41" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>177.4083093538499</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K41" t="n">
-        <v>423.9151489921541</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L41" t="n">
-        <v>1125.519305035952</v>
+        <v>835.4324121366317</v>
       </c>
       <c r="M41" t="n">
-        <v>1922.795658755843</v>
+        <v>1632.708765856522</v>
       </c>
       <c r="N41" t="n">
-        <v>2718.340779859874</v>
+        <v>2428.253886960553</v>
       </c>
       <c r="O41" t="n">
-        <v>3424.363840884069</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P41" t="n">
-        <v>3670.683085050105</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.485832605502</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R41" t="n">
-        <v>3807.485832605502</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862514</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813159</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U41" t="n">
         <v>3415.449390176633</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873104</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.258029643031</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.612362421992</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>200.277753927639</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3328803593267</v>
+        <v>104.3328803593266</v>
       </c>
       <c r="I42" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
         <v>242.4709188044724</v>
       </c>
       <c r="K42" t="n">
-        <v>653.361187648985</v>
+        <v>391.5406030065323</v>
       </c>
       <c r="L42" t="n">
-        <v>900.1263155554491</v>
+        <v>638.3057309129963</v>
       </c>
       <c r="M42" t="n">
-        <v>1207.446448835411</v>
+        <v>945.625864192958</v>
       </c>
       <c r="N42" t="n">
-        <v>1537.309076499444</v>
+        <v>1750.037442457109</v>
       </c>
       <c r="O42" t="n">
-        <v>1816.849141718141</v>
+        <v>2029.577507675806</v>
       </c>
       <c r="P42" t="n">
-        <v>2307.396713252248</v>
+        <v>2504.743216013439</v>
       </c>
       <c r="Q42" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R42" t="n">
         <v>2602.506130567962</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026572</v>
+        <v>638.3928643026571</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147913</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424967</v>
+        <v>456.9802240424966</v>
       </c>
       <c r="E43" t="n">
         <v>377.8872215001446</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422752</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021369</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901213</v>
       </c>
       <c r="I43" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J43" t="n">
         <v>155.9829803443641</v>
@@ -7600,7 +7600,7 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
         <v>1282.960265051241</v>
@@ -7612,7 +7612,7 @@
         <v>903.1937261963449</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928557</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7640,55 @@
         <v>329.485680192289</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402936</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I44" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
         <v>177.4083093538499</v>
       </c>
       <c r="K44" t="n">
-        <v>423.9151489921541</v>
+        <v>626.3922331976798</v>
       </c>
       <c r="L44" t="n">
-        <v>1125.519305035952</v>
+        <v>914.511786836532</v>
       </c>
       <c r="M44" t="n">
-        <v>1922.795658755843</v>
+        <v>1711.788140556423</v>
       </c>
       <c r="N44" t="n">
-        <v>2718.340779859874</v>
+        <v>2507.333261660453</v>
       </c>
       <c r="O44" t="n">
-        <v>3424.363840884069</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P44" t="n">
-        <v>3670.683085050105</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q44" t="n">
-        <v>3807.485832605502</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R44" t="n">
-        <v>3807.485832605502</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862514</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813159</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V44" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W44" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X44" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y44" t="n">
         <v>2243.293121486221</v>
@@ -7719,31 +7719,31 @@
         <v>200.277753927639</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3328803593267</v>
+        <v>104.3328803593266</v>
       </c>
       <c r="I45" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K45" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L45" t="n">
-        <v>900.1263155554491</v>
+        <v>775.2961905684443</v>
       </c>
       <c r="M45" t="n">
-        <v>1207.446448835411</v>
+        <v>1082.616323848406</v>
       </c>
       <c r="N45" t="n">
-        <v>1537.309076499444</v>
+        <v>1507.556026297804</v>
       </c>
       <c r="O45" t="n">
-        <v>1816.849141718141</v>
+        <v>1787.096091516501</v>
       </c>
       <c r="P45" t="n">
-        <v>2337.149763453888</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q45" t="n">
         <v>2602.506130567962</v>
@@ -7780,64 +7780,64 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026571</v>
+        <v>638.3928643026574</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147915</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001447</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422752</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021369</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901213</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
         <v>155.982980344364</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173195</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
-        <v>688.781572056793</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M46" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N46" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P46" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R46" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T46" t="n">
-        <v>1689.133209963487</v>
+        <v>1689.133209963488</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V46" t="n">
         <v>1282.960265051241</v>
@@ -7846,10 +7846,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963448</v>
+        <v>903.1937261963452</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928557</v>
+        <v>751.221238092856</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>354.0566759388317</v>
+        <v>197.6593378372519</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>160.4324764162802</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>428.445724902262</v>
+        <v>362.1985434013521</v>
       </c>
       <c r="N6" t="n">
-        <v>416.4642451451483</v>
+        <v>85.22276152420899</v>
       </c>
       <c r="O6" t="n">
-        <v>100.4064147511805</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>219.9778004203351</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,25 +10194,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>297.3877236703346</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>249.7986880468353</v>
       </c>
       <c r="L35" t="n">
-        <v>261.7930203334341</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>148.2747143566551</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.45246415629049</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>172.1672894776392</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>44.45246415629052</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,16 +11072,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>79.87815626252541</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>272.8719470256806</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>44.45246415629052</v>
+        <v>248.9747714345994</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11309,16 +11309,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>136.681094994648</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>75.2688311464438</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>227.8148812063171</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>185.2331835502363</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>163.8991254338653</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>124.7054865406957</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>9.476415919558317</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>117.089614738993</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.2303518676588</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>139.6451927843493</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.0138447039338</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>118.8323343322906</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>117.8194197086527</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.891940149099</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>121.3122000532576</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>82.81761714999344</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>170.3191816693247</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>258.6357240842988</v>
+        <v>125.9413170061077</v>
       </c>
       <c r="V28" t="n">
-        <v>54.46039044423834</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.9830250378163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.2303518676588</v>
+        <v>152.2303518676587</v>
       </c>
       <c r="C31" t="n">
         <v>139.6451927843493</v>
       </c>
       <c r="D31" t="n">
-        <v>121.0138447039338</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>118.8323343322907</v>
+        <v>118.8323343322906</v>
       </c>
       <c r="F31" t="n">
         <v>117.8194197086527</v>
       </c>
       <c r="G31" t="n">
-        <v>43.38697336346995</v>
+        <v>138.891940149099</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.3122000532576</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>82.81761714999342</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.36272408951429</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>94.72480984238331</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.9830250378163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26314,19 +26314,19 @@
         <v>143682.3097262496</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="F2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.170908198</v>
       </c>
       <c r="G2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="H2" t="n">
         <v>136860.1709081981</v>
@@ -26335,7 +26335,7 @@
         <v>136860.1709081981</v>
       </c>
       <c r="J2" t="n">
-        <v>139623.9594895213</v>
+        <v>139623.9594895214</v>
       </c>
       <c r="K2" t="n">
         <v>139623.9594895214</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>60975.92555038905</v>
+        <v>60975.92555038731</v>
       </c>
       <c r="D3" t="n">
-        <v>359462.5173298102</v>
+        <v>359462.5173298118</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94335.99752256193</v>
+        <v>94335.99752256199</v>
       </c>
       <c r="K3" t="n">
-        <v>14177.10853800621</v>
+        <v>14177.10853800588</v>
       </c>
       <c r="L3" t="n">
-        <v>119246.0112699056</v>
+        <v>119246.0112699059</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762911</v>
+        <v>69175.08933762905</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22081.3026514228</v>
+        <v>22081.30265142284</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>299668.3554259907</v>
+        <v>299668.3554259912</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26427,37 +26427,37 @@
         <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
+        <v>43561.42148316558</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43561.42148316557</v>
+      </c>
+      <c r="H4" t="n">
         <v>43561.42148316556</v>
       </c>
-      <c r="G4" t="n">
-        <v>43561.42148316558</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43561.42148316558</v>
-      </c>
       <c r="I4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="J4" t="n">
-        <v>52643.73274026383</v>
+        <v>52643.7327402638</v>
       </c>
       <c r="K4" t="n">
-        <v>52643.73274026383</v>
+        <v>52643.7327402638</v>
       </c>
       <c r="L4" t="n">
         <v>65980.20872448603</v>
       </c>
       <c r="M4" t="n">
+        <v>99837.12979766788</v>
+      </c>
+      <c r="N4" t="n">
+        <v>99837.12979766788</v>
+      </c>
+      <c r="O4" t="n">
         <v>99837.12979766782</v>
       </c>
-      <c r="N4" t="n">
-        <v>99837.12979766782</v>
-      </c>
-      <c r="O4" t="n">
-        <v>99837.1297976678</v>
-      </c>
       <c r="P4" t="n">
-        <v>99837.12979766782</v>
+        <v>99837.12979766788</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>55564.27390978101</v>
+        <v>55564.27390978088</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,7 +26482,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>94307.76723946971</v>
+        <v>94307.76723946973</v>
       </c>
       <c r="K5" t="n">
-        <v>94307.76723946971</v>
+        <v>94307.76723946973</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>81703.90096581177</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="N5" t="n">
-        <v>81703.90096581177</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="O5" t="n">
-        <v>81703.90096581177</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="P5" t="n">
-        <v>81703.90096581177</v>
+        <v>81703.90096581174</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-350719.3796742558</v>
       </c>
       <c r="C6" t="n">
-        <v>-272526.2451599111</v>
+        <v>-272526.2451599099</v>
       </c>
       <c r="D6" t="n">
-        <v>-490845.8820593995</v>
+        <v>-490845.8820594013</v>
       </c>
       <c r="E6" t="n">
-        <v>-523848.6130005801</v>
+        <v>-523946.0721265524</v>
       </c>
       <c r="F6" t="n">
-        <v>1311.42347631602</v>
+        <v>1213.964350343623</v>
       </c>
       <c r="G6" t="n">
-        <v>1311.423476315991</v>
+        <v>1213.964350343681</v>
       </c>
       <c r="H6" t="n">
-        <v>1311.423476315889</v>
+        <v>1213.964350343754</v>
       </c>
       <c r="I6" t="n">
-        <v>1311.423476315875</v>
+        <v>1213.964350343725</v>
       </c>
       <c r="J6" t="n">
-        <v>-101663.5380127742</v>
+        <v>-101721.5144447274</v>
       </c>
       <c r="K6" t="n">
-        <v>-21504.64902821839</v>
+        <v>-21562.62546017128</v>
       </c>
       <c r="L6" t="n">
-        <v>-139259.0160881676</v>
+        <v>-139259.0160881679</v>
       </c>
       <c r="M6" t="n">
         <v>-107033.8103748589</v>
       </c>
       <c r="N6" t="n">
-        <v>-37858.72103722984</v>
+        <v>-37858.7210372299</v>
       </c>
       <c r="O6" t="n">
-        <v>-59940.02368865265</v>
+        <v>-59940.02368865268</v>
       </c>
       <c r="P6" t="n">
-        <v>-37858.72103722984</v>
+        <v>-37858.7210372299</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="K2" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.43998649669069</v>
+        <v>82.43998649668927</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,19 +26750,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>331.2414836209401</v>
+        <v>331.2414836209385</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>951.8714581513755</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513755</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513755</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="P4" t="n">
-        <v>951.8714581513755</v>
+        <v>951.8714581513751</v>
       </c>
     </row>
   </sheetData>
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.60162831427856</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>40.53026181536208</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>27.60162831427849</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>40.53026181536214</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.6016283142785</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>47.41872577756536</v>
+        <v>47.41872577756398</v>
       </c>
       <c r="D3" t="n">
-        <v>295.303677720396</v>
+        <v>295.3036777203973</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370136</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>55.08496991858457</v>
+        <v>55.08496991858305</v>
       </c>
       <c r="D4" t="n">
-        <v>343.0457891336155</v>
+        <v>343.0457891336171</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023557</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858434</v>
+        <v>55.08496991858305</v>
       </c>
       <c r="L4" t="n">
-        <v>343.0457891336155</v>
+        <v>343.0457891336168</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968199</v>
+        <v>277.5841853968195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427849</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858457</v>
+        <v>55.08496991858305</v>
       </c>
       <c r="L4" t="n">
-        <v>343.0457891336155</v>
+        <v>343.0457891336171</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.52806762696372</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27436,16 +27436,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>299.1865115996179</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>93.3960604738709</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>55.57154584032065</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>132.9684527965684</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27585,7 +27585,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206877</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.4923580425405</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>23.44155799974288</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>50.68888645132171</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>130.0898674523802</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>336.0806774455793</v>
+        <v>4.839193824640859</v>
       </c>
       <c r="I5" t="n">
-        <v>197.6989344772856</v>
+        <v>197.6989344772859</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>129.0507428586462</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>201.4679039890862</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.6450715103052</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3191395453451</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>329.9271389419339</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>38.48961705753055</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27713,7 +27713,7 @@
         <v>110.522870177386</v>
       </c>
       <c r="I6" t="n">
-        <v>83.29140743632996</v>
+        <v>83.29140743633008</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>38.85919156989219</v>
+        <v>48.46417753513913</v>
       </c>
       <c r="S6" t="n">
-        <v>168.3894603225785</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.4499895666097</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9297160451498</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>61.31754852579363</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.842317087727</v>
@@ -27792,13 +27792,13 @@
         <v>160.9054297731156</v>
       </c>
       <c r="I7" t="n">
-        <v>150.9797950037984</v>
+        <v>150.9797950037985</v>
       </c>
       <c r="J7" t="n">
-        <v>82.84875757593895</v>
+        <v>82.84875757593913</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.997638917232219</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.71360529069409</v>
+        <v>73.7136052906943</v>
       </c>
       <c r="R7" t="n">
-        <v>170.6089950949952</v>
+        <v>170.6089950949953</v>
       </c>
       <c r="S7" t="n">
-        <v>221.4258201006746</v>
+        <v>221.4258201006747</v>
       </c>
       <c r="T7" t="n">
         <v>227.3103960897004</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3109205053601</v>
+        <v>50.77581944442318</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>131.5621593753816</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>69.33174441270474</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4245153318072</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="C28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="D28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="E28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="F28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="G28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="H28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="I28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="J28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="K28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="L28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="M28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="N28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="O28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="P28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="R28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="S28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="T28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="U28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="V28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="W28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="X28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="C31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="D31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="E31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="F31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="G31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="H31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="I31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="J31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="K31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="L31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="M31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="N31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="O31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="P31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="R31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="S31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="T31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="U31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="V31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="W31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="X31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964168</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30280,10 +30280,10 @@
         <v>68.13189012964064</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964045</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964182</v>
       </c>
       <c r="X38" t="n">
         <v>68.13189012964064</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964017</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964193</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3314170311424749</v>
+        <v>0.3314170311424692</v>
       </c>
       <c r="H5" t="n">
-        <v>3.394124670187872</v>
+        <v>3.394124670187813</v>
       </c>
       <c r="I5" t="n">
-        <v>12.77695509312028</v>
+        <v>12.77695509312005</v>
       </c>
       <c r="J5" t="n">
-        <v>28.12860624692865</v>
+        <v>28.12860624692817</v>
       </c>
       <c r="K5" t="n">
-        <v>42.15748917518962</v>
+        <v>42.1574891751889</v>
       </c>
       <c r="L5" t="n">
-        <v>52.30009314201615</v>
+        <v>52.30009314201525</v>
       </c>
       <c r="M5" t="n">
-        <v>58.19393076959614</v>
+        <v>58.19393076959513</v>
       </c>
       <c r="N5" t="n">
-        <v>59.1355694093297</v>
+        <v>59.13556940932868</v>
       </c>
       <c r="O5" t="n">
-        <v>55.84004130590671</v>
+        <v>55.84004130590575</v>
       </c>
       <c r="P5" t="n">
-        <v>47.65818334957685</v>
+        <v>47.65818334957603</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.78931092178696</v>
+        <v>35.78931092178635</v>
       </c>
       <c r="R5" t="n">
-        <v>20.81837508250351</v>
+        <v>20.81837508250315</v>
       </c>
       <c r="S5" t="n">
-        <v>7.552165597159155</v>
+        <v>7.552165597159024</v>
       </c>
       <c r="T5" t="n">
-        <v>1.450778053826185</v>
+        <v>1.45077805382616</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02651336249139799</v>
+        <v>0.02651336249139753</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1773237445400517</v>
+        <v>0.1773237445400486</v>
       </c>
       <c r="H6" t="n">
-        <v>1.712574059110499</v>
+        <v>1.71257405911047</v>
       </c>
       <c r="I6" t="n">
-        <v>6.105225415085114</v>
+        <v>6.105225415085008</v>
       </c>
       <c r="J6" t="n">
-        <v>16.75320518042655</v>
+        <v>16.75320518042626</v>
       </c>
       <c r="K6" t="n">
-        <v>28.63389606461001</v>
+        <v>28.63389606460952</v>
       </c>
       <c r="L6" t="n">
-        <v>38.50180690111956</v>
+        <v>38.5018069011189</v>
       </c>
       <c r="M6" t="n">
-        <v>44.92979264069642</v>
+        <v>44.92979264069564</v>
       </c>
       <c r="N6" t="n">
-        <v>46.11895055912511</v>
+        <v>46.11895055912431</v>
       </c>
       <c r="O6" t="n">
-        <v>42.18982969326396</v>
+        <v>42.18982969326323</v>
       </c>
       <c r="P6" t="n">
-        <v>33.8610578499332</v>
+        <v>33.86105784993262</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.63522044339327</v>
+        <v>22.63522044339287</v>
       </c>
       <c r="R6" t="n">
-        <v>11.00962687591655</v>
+        <v>11.00962687591636</v>
       </c>
       <c r="S6" t="n">
-        <v>3.293710781259291</v>
+        <v>3.293710781259235</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7147391282118747</v>
+        <v>0.7147391282118624</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01166603582500341</v>
+        <v>0.0116660358250032</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1486622707317373</v>
+        <v>0.1486622707317347</v>
       </c>
       <c r="H7" t="n">
-        <v>1.321742734323993</v>
+        <v>1.32174273432397</v>
       </c>
       <c r="I7" t="n">
-        <v>4.470679923459883</v>
+        <v>4.470679923459806</v>
       </c>
       <c r="J7" t="n">
-        <v>10.51042254073383</v>
+        <v>10.51042254073364</v>
       </c>
       <c r="K7" t="n">
-        <v>17.27185290865093</v>
+        <v>17.27185290865063</v>
       </c>
       <c r="L7" t="n">
-        <v>22.10202523224393</v>
+        <v>22.10202523224355</v>
       </c>
       <c r="M7" t="n">
-        <v>23.30348667479405</v>
+        <v>23.30348667479365</v>
       </c>
       <c r="N7" t="n">
-        <v>22.74938184752124</v>
+        <v>22.74938184752084</v>
       </c>
       <c r="O7" t="n">
-        <v>21.01273623033684</v>
+        <v>21.01273623033648</v>
       </c>
       <c r="P7" t="n">
-        <v>17.98002590740938</v>
+        <v>17.98002590740908</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.44843796100029</v>
+        <v>12.44843796100008</v>
       </c>
       <c r="R7" t="n">
-        <v>6.684396282174295</v>
+        <v>6.68439628217418</v>
       </c>
       <c r="S7" t="n">
-        <v>2.590777936297639</v>
+        <v>2.590777936297595</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6351933385810592</v>
+        <v>0.6351933385810482</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008108851130822044</v>
+        <v>0.008108851130821904</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>231.0092291087367</v>
+        <v>74.61189100715683</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>16.17931689231614</v>
+        <v>16.17931689231565</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2130507013738</v>
+        <v>146.2130507013731</v>
       </c>
       <c r="L5" t="n">
-        <v>234.1948927224794</v>
+        <v>234.1948927224784</v>
       </c>
       <c r="M5" t="n">
-        <v>277.3612310351559</v>
+        <v>277.3612310351549</v>
       </c>
       <c r="N5" t="n">
-        <v>267.069430224723</v>
+        <v>267.0694302247219</v>
       </c>
       <c r="O5" t="n">
-        <v>206.5420111469653</v>
+        <v>206.5420111469644</v>
       </c>
       <c r="P5" t="n">
-        <v>138.22389576579</v>
+        <v>138.2238957657891</v>
       </c>
       <c r="Q5" t="n">
-        <v>25.79861170724216</v>
+        <v>25.79861170724154</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>16.00661385416869</v>
+        <v>16.00661385416841</v>
       </c>
       <c r="K6" t="n">
-        <v>51.22493350653118</v>
+        <v>155.2576941028291</v>
       </c>
       <c r="L6" t="n">
-        <v>270.7877724247045</v>
+        <v>270.7877724247039</v>
       </c>
       <c r="M6" t="n">
-        <v>331.2414836209401</v>
+        <v>264.9943021200294</v>
       </c>
       <c r="N6" t="n">
-        <v>331.2414836209401</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>293.4559045255483</v>
       </c>
       <c r="P6" t="n">
-        <v>218.3494190755401</v>
+        <v>218.3494190755395</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.73073409322085</v>
+        <v>92.73073409322046</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>49.69205049256007</v>
+        <v>49.69205049255969</v>
       </c>
       <c r="M7" t="n">
-        <v>62.88736363663465</v>
+        <v>62.88736363663424</v>
       </c>
       <c r="N7" t="n">
-        <v>66.88155422674983</v>
+        <v>66.88155422674943</v>
       </c>
       <c r="O7" t="n">
-        <v>45.59786414437652</v>
+        <v>45.59786414437615</v>
       </c>
       <c r="P7" t="n">
-        <v>15.25858517230287</v>
+        <v>15.25858517230256</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35729,7 +35729,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,16 +35738,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>427.0712153518598</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>401.6619767334874</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36294,10 +36294,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>464.3977765279026</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36531,10 +36531,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>146.7850892314815</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.10939847984403</v>
+        <v>40.10939847984409</v>
       </c>
       <c r="K28" t="n">
         <v>179.3040568441891</v>
@@ -36759,19 +36759,19 @@
         <v>277.8158151942071</v>
       </c>
       <c r="M28" t="n">
-        <v>301.911469493251</v>
+        <v>301.9114694932511</v>
       </c>
       <c r="N28" t="n">
-        <v>300.8785061198821</v>
+        <v>300.8785061198822</v>
       </c>
       <c r="O28" t="n">
-        <v>263.8389798348813</v>
+        <v>263.8389798348815</v>
       </c>
       <c r="P28" t="n">
         <v>205.9852289260793</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.82732828615326</v>
+        <v>66.82732828615332</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>504.4811386018593</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.10939847984403</v>
+        <v>40.10939847984409</v>
       </c>
       <c r="K31" t="n">
         <v>179.3040568441891</v>
@@ -36996,19 +36996,19 @@
         <v>277.8158151942071</v>
       </c>
       <c r="M31" t="n">
-        <v>301.911469493251</v>
+        <v>301.9114694932511</v>
       </c>
       <c r="N31" t="n">
-        <v>300.8785061198821</v>
+        <v>300.8785061198822</v>
       </c>
       <c r="O31" t="n">
-        <v>263.8389798348813</v>
+        <v>263.8389798348815</v>
       </c>
       <c r="P31" t="n">
         <v>205.9852289260793</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.82732828615326</v>
+        <v>66.82732828615332</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>556.8688383914607</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>454.3430316060036</v>
       </c>
       <c r="L35" t="n">
-        <v>552.8228724938908</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M35" t="n">
-        <v>355.8161167292792</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,19 +37394,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>481.469287754668</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.7338709257247</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K38" t="n">
         <v>204.5443435591683</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>527.9834062069184</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37558,7 +37558,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>248.8073173394297</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>138.1845934903002</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>484.886707464902</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2814067694342</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>248.9968077154588</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37792,16 +37792,16 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>412.2325820949272</v>
       </c>
       <c r="P41" t="n">
-        <v>248.8073173394297</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>479.9653619572053</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,10 +38017,10 @@
         <v>102.2814067694342</v>
       </c>
       <c r="K44" t="n">
-        <v>248.9968077154588</v>
+        <v>453.5191149937677</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38029,16 +38029,16 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P44" t="n">
-        <v>248.8073173394297</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,7 +38105,7 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
@@ -38114,7 +38114,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
